--- a/Libraries/Vehicle/Differential/Gear1DShafts1D/sm_car_data_Differential_Gear1DShafts1D.xlsx
+++ b/Libraries/Vehicle/Differential/Gear1DShafts1D/sm_car_data_Differential_Gear1DShafts1D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\Others\smiller\ssvt\Libraries\Vehicle\Differential\Gear1DShafts1D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7FD46D2-0BF5-4660-8920-50B12D682686}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3396B1CC-8E54-4E90-8AF9-00F7788155A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="5" xr2:uid="{7BD026E2-BF2F-43D8-B94E-4B8717A574C5}"/>
+    <workbookView xWindow="2160" yWindow="2184" windowWidth="20424" windowHeight="10212" tabRatio="737" firstSheet="2" activeTab="7" xr2:uid="{7BD026E2-BF2F-43D8-B94E-4B8717A574C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sedan_HambaLG_f" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Sedan_Hamba_r" sheetId="4" r:id="rId4"/>
     <sheet name="Bus_Makhulu_f" sheetId="5" r:id="rId5"/>
     <sheet name="Bus_Makhulu_r" sheetId="6" r:id="rId6"/>
+    <sheet name="Truck_Amandla_A2" sheetId="7" r:id="rId7"/>
+    <sheet name="Truck_Amandla_A3" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="20">
   <si>
     <t>Units</t>
   </si>
@@ -90,6 +92,12 @@
   </si>
   <si>
     <t>Gear1DShafts1D_Bus_Makhulu_r</t>
+  </si>
+  <si>
+    <t>Gear1DShafts1D_Truck_Amandla_A2</t>
+  </si>
+  <si>
+    <t>Gear1DShafts1D_Truck_Amandla_A3</t>
   </si>
 </sst>
 </file>
@@ -203,7 +211,203 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="84">
+  <dxfs count="112">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1504,72 +1708,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D23 B24 A21 A22:B22 B6:C7 B8 B9:C10 B14 B15:C17 B13:C13 C2 A2 A4 C4">
-    <cfRule type="cellIs" dxfId="83" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="14" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="82" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="13" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="81" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="77" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1981,72 +2185,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D23 B24 A21 A22:B22 B6:C7 B8 B9:C10 B14 B15:C17 B13:C13 C2 A2 A4 C4">
-    <cfRule type="cellIs" dxfId="69" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="14" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="68" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="13" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2458,72 +2662,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D23 B24 A21 A22:B22 B6:C7 B8 B9:C10 B14 B15:C17 B13:C13 C2 A2 A4 C4">
-    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="14" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="54" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="13" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2935,72 +3139,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D23 B24 A21 A22:B22 B6:C7 B8 B9:C10 B14 B15:C17 B13:C13 C2 A2 A4 C4">
-    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="14" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="13" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3412,72 +3616,72 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D23 B24 A21 A22:B22 B6:C7 B8 B9:C10 B14 B15:C17 B13:C13 C2 A2 A4 C4">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="14" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:C17">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="13" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="12" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="10" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21:C21">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="7" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:B20">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="5" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:C18">
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:C12">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="3" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:C19">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
       <formula>"class"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3492,7 +3696,7 @@
   </sheetPr>
   <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>
@@ -3889,6 +4093,960 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D23 B24 A21 A22:B22 B6:C7 B8 B9:C10 B14 B15:C17 B13:C13 C2 A2 A4 C4">
+    <cfRule type="cellIs" dxfId="41" priority="14" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:C17">
+    <cfRule type="cellIs" dxfId="40" priority="13" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="39" priority="12" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="37" priority="10" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="cellIs" dxfId="36" priority="9" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:C18">
+    <cfRule type="cellIs" dxfId="31" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:C12">
+    <cfRule type="cellIs" dxfId="30" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:C19">
+    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9BD39B-3AD7-4F6D-8FAE-C824ED6CA926}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="H6" s="7"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="H7" s="18"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+    </row>
+    <row r="27" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+    </row>
+    <row r="28" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+    </row>
+    <row r="30" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D23 B24 A21 A22:B22 B6:C7 B8 B9:C10 B14 B15:C17 B13:C13 C2 A2 A4 C4">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:C17">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20:B20">
+    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:C18">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:C12">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:C19">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
+      <formula>"class"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D6A219-5862-4ACD-9CCD-A27E81356706}">
+  <sheetPr>
+    <tabColor theme="5" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:AA30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10" customWidth="1"/>
+    <col min="9" max="15" width="6.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="H2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="R2"/>
+      <c r="S2"/>
+      <c r="T2"/>
+      <c r="U2"/>
+      <c r="V2"/>
+      <c r="W2"/>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+    </row>
+    <row r="3" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+    </row>
+    <row r="5" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="17">
+        <v>1</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5"/>
+      <c r="O5"/>
+      <c r="P5"/>
+      <c r="Q5"/>
+      <c r="R5"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+    </row>
+    <row r="6" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="H6" s="7"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+    </row>
+    <row r="7" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="H7" s="18"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+    </row>
+    <row r="8" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="19"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="19"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+    </row>
+    <row r="27" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+    </row>
+    <row r="28" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+    </row>
+    <row r="29" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+    </row>
+    <row r="30" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D23 B24 A21 A22:B22 B6:C7 B8 B9:C10 B14 B15:C17 B13:C13 C2 A2 A4 C4">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"class"</formula>
     </cfRule>
